--- a/biology/Zoologie/Chthonius_cephalotes/Chthonius_cephalotes.xlsx
+++ b/biology/Zoologie/Chthonius_cephalotes/Chthonius_cephalotes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius cephalotes est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Bouches-du-Rhône en France[1]. Elle se rencontre dans la grotte des Baux dans le massif des Alpilles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Bouches-du-Rhône en France. Elle se rencontre dans la grotte des Baux dans le massif des Alpilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 3 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1875 : Note sur quelques Arachnides rencontrés par M. Abeille de Perrin dans une grotte près du village des Baux et description d'une espèce nouvelle (Blothrus cephalotes). Annales de la Société Entomologique de France, sér. 5, vol. 5, p. ccvi-ccvii (texte intégral).</t>
         </is>
